--- a/RevisionSheet.xlsx
+++ b/RevisionSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milind.gokhale/github/jsdev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F34D390-65FB-B14D-B4CB-E0909C6C16F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5FDB0F-F528-E54F-95F8-EB10B084A783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{20D34E75-82C1-E34C-A7B5-A57F903BD2B5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19360" xr2:uid="{20D34E75-82C1-E34C-A7B5-A57F903BD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="LC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -191,12 +191,213 @@
   <si>
     <t>Simple linkedlist pointers</t>
   </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>Same as 63 and 62</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Too easy</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Array | Linear | String</t>
+  </si>
+  <si>
+    <t>Very easy. But simplify in single while loop instead of 3 loops. Since its for array and not for a list. That makes the code much more readable.</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Need many revisions of this for a concise and easy to reproduce solution</t>
+  </si>
+  <si>
+    <t>Need more revision. Good problem even though simple</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Fibonacci | Numbers | Iterative | Recursion</t>
+  </si>
+  <si>
+    <t>Best way to solve it is iterative way even though the intuition is completely of recursion.</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Really good way of reducing space complexity.</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>I'm liking it. Lovely problem. Consider 2D array as a 1D array instead and do binary search</t>
+  </si>
+  <si>
+    <t>Color Sort | Dutch flag problem</t>
+  </si>
+  <si>
+    <t>Partition Logic | Quicksort | Array | Linear | Pointer play</t>
+  </si>
+  <si>
+    <t>This is really a good problem to understand the basic invariable condition of the quicksort's partition algorithm.</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted array II</t>
+  </si>
+  <si>
+    <t>Simple problem with pointers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-refueling-stops/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/furthest-building-you-can-reach/</t>
+  </si>
+  <si>
+    <t>A very important clue found about problems which are not actually Dynamic Programming - If problem is actually 0/1 Knapsack like problem then it can probably be solved using Greedy Approach than using dynamic programming extra efforts.</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted list II</t>
+  </si>
+  <si>
+    <t>LinkedList | Linear | Pointer Play</t>
+  </si>
+  <si>
+    <t>Array | Linear | Index Play</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted list</t>
+  </si>
+  <si>
+    <t>Simple problem with pointers/array indices</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>The crux of the problem is to not needing any array strategy like partition logic used in Dutch flag problem.</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Array | Array Methods | Linear</t>
+  </si>
+  <si>
+    <t>The main caveat is to do in-place. For this clue is splice method of arrays to inject the smaller element in one of the arrays. Revision MUST!</t>
+  </si>
+  <si>
+    <t>Key is to do it iteratively. Recursion is trivial - LCR</t>
+  </si>
+  <si>
+    <t>Binary Tree inorder traversal</t>
+  </si>
+  <si>
+    <t>Tree | Recursion | Iterative | Pointer Play</t>
+  </si>
+  <si>
+    <t>Same tree</t>
+  </si>
+  <si>
+    <t>Tree | Recursion | Pointer Play</t>
+  </si>
+  <si>
+    <t>Think of base cases of recursion, either of the tree null but not both null and how about both leaf or not leaf nodes</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Recursive is Trivial | But iterative is the key for performance and basically using Level Order Traversal is the trick!!</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree | Recursion | DFS | BFS</t>
+  </si>
+  <si>
+    <t>Trivial to do it using recursion or stack or DFS. But the main trick is to reach first leaf node. So its better to do it in BFS.</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>TRee | Recursion | DFS | BFS | LinkedList</t>
+  </si>
+  <si>
+    <t>Binary Tree Level order traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree zigzag level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree | BFS | Queue </t>
+  </si>
+  <si>
+    <t>Trivial with queue and sentinel</t>
+  </si>
+  <si>
+    <t>Trivial with 2 stacks and sentinel</t>
+  </si>
+  <si>
+    <t>Tree | BFS | Queue | Stack</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree | DFS | Recursion</t>
+  </si>
+  <si>
+    <t>Binary Tree Level order traversal II</t>
+  </si>
+  <si>
+    <t>Convert sorted array to Binary tree</t>
+  </si>
+  <si>
+    <t>Tree | Recursion | Divide and Conquer</t>
+  </si>
+  <si>
+    <t>DO this by using divie and conquer strategy in recursion.</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>DO it again using the recursive solution using O(1) space. Think of post order to prepare preorder. Inverse iteration pattern</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +409,15 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,6 +460,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E863F9-6DAE-454C-871E-E881AC4B67FC}">
-  <dimension ref="A3:G47"/>
+  <dimension ref="A3:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -919,7 +1130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -933,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -944,7 +1155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -961,7 +1172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -978,7 +1189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -995,30 +1206,514 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>114</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
         <v>1290</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{7EFC0B5E-D1D3-6743-B22B-C78E928786AB}"/>
-    <hyperlink ref="G47" r:id="rId2" xr:uid="{1C5B19B3-BCF2-FD46-9AE1-1F3B434170AD}"/>
+    <hyperlink ref="G75" r:id="rId2" xr:uid="{1C5B19B3-BCF2-FD46-9AE1-1F3B434170AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RevisionSheet.xlsx
+++ b/RevisionSheet.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milind.gokhale/github/jsdev/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F0C67F-1A38-5B46-88B4-31FAF413A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="LC"/>
+    <sheet name="LC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>Revision Cnt</t>
   </si>
@@ -403,12 +409,20 @@
   <si>
     <t>https://leetcode.com/problems/furthest-building-you-can-reach/</t>
   </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,16 +483,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,44 +500,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -534,10 +544,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -575,71 +585,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,7 +677,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -690,11 +700,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -703,13 +713,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -719,7 +729,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -728,7 +738,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -737,7 +747,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -745,10 +755,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -813,28 +823,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A4" ySplit="3" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="101.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="45.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -843,7 +853,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -852,7 +862,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,10 +884,13 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="75">
+      <c r="H3" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -895,10 +908,13 @@
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="H4" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -914,8 +930,11 @@
         <v>13</v>
       </c>
       <c r="G5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="H5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -932,7 +951,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -945,7 +964,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -958,7 +977,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -971,7 +990,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -984,7 +1003,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -995,7 +1014,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1004,7 +1023,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1019,7 +1038,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1032,7 +1051,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1047,7 +1066,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1060,7 +1079,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1073,7 +1092,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1088,7 +1107,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1101,7 +1120,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1114,7 +1133,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1127,7 +1146,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1142,7 +1161,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1157,7 +1176,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -1170,7 +1189,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -1183,7 +1202,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -1196,7 +1215,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1209,7 +1228,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -1226,7 +1245,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -1241,7 +1260,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -1258,7 +1277,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1296,7 +1315,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -1315,7 +1334,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1332,7 +1351,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -1347,7 +1366,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1366,7 +1385,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -1385,7 +1404,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1404,7 +1423,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -1421,7 +1440,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -1438,7 +1457,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -1457,7 +1476,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -1476,7 +1495,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -1495,7 +1514,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -1514,7 +1533,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -1531,7 +1550,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -1550,7 +1569,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -1569,7 +1588,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -1588,7 +1607,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -1607,7 +1626,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -1626,7 +1645,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -1645,7 +1664,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -1664,7 +1683,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -1683,7 +1702,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -1702,7 +1721,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -1721,7 +1740,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -1740,7 +1759,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -1759,7 +1778,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -1778,7 +1797,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -1797,7 +1816,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -1814,7 +1833,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -1833,7 +1852,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -1852,7 +1871,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row r="63" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -1871,7 +1890,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -1890,7 +1909,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row r="65" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -1909,7 +1928,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -1928,7 +1947,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -1947,7 +1966,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row r="68" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -1966,7 +1985,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row r="69" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -1985,7 +2004,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -2004,7 +2023,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row r="71" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -2013,7 +2032,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row r="72" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -2022,7 +2041,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row r="73" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -2031,7 +2050,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row r="74" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -2042,7 +2061,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row r="75" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -2063,7 +2082,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row r="76" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -2072,7 +2091,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -2081,7 +2100,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row r="78" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -2092,7 +2111,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row r="79" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>

--- a/RevisionSheet.xlsx
+++ b/RevisionSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milind.gokhale/github/jsdev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milind.gokhale/git/jsdev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F0C67F-1A38-5B46-88B4-31FAF413A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3600D-0BE4-174B-BB99-319DF6977E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t>Revision Cnt</t>
   </si>
@@ -418,12 +418,33 @@
   <si>
     <t>Medium</t>
   </si>
+  <si>
+    <t>Use a set to keep track of unique elements in sequence and as we find some repeat, start emptying the set till repeated character is removed from the set and continue filling set again. Keep track of the longest length of the set.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/732904997/</t>
+  </si>
+  <si>
+    <t>Problem link</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>HashMap | Linear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +472,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -497,10 +526,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -522,8 +552,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,11 +860,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -844,7 +877,7 @@
     <col min="7" max="7" width="45.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -853,7 +886,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -862,7 +895,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,8 +920,11 @@
       <c r="H3" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -911,8 +947,11 @@
       <c r="H4" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -934,7 +973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -948,10 +987,20 @@
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -964,7 +1013,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -977,7 +1026,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -990,7 +1039,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1003,7 +1052,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1014,7 +1063,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1023,7 +1072,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1038,7 +1087,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1051,7 +1100,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1066,7 +1115,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2025,9 +2074,15 @@
     </row>
     <row r="71" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="1">
+        <v>383</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2123,6 +2178,11 @@
       <c r="G79" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{8AB61D56-F3BD-7F46-A73C-08C2149C9EAA}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{53C973C2-B214-0040-A1C1-232A91676450}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{A19B466F-05BB-3646-AC10-8CCCD5BADA27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RevisionSheet.xlsx
+++ b/RevisionSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milind.gokhale/git/jsdev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3600D-0BE4-174B-BB99-319DF6977E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62BBD87-FF8D-5543-B35C-FEC9B1FC3E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Set Matrix Zeroes</t>
   </si>
   <si>
-    <t>Really good way of reducing space complexity.</t>
-  </si>
-  <si>
     <t>Search a 2D Matrix</t>
   </si>
   <si>
@@ -438,6 +435,12 @@
   </si>
   <si>
     <t>HashMap | Linear</t>
+  </si>
+  <si>
+    <t>Really good way of reducing space complexity.
+hint use the first index of row and column as the flagger to check whether we need to update this row and column to 0. Then iterate over the first row and first column and check and update respective rows and columns to 0.
+So whenever you encounter a cell with value 0, call updateRowCol function to update that cells i row and j column to $ for all cells which are Non-zero.
+Then run a similar double for loop to basically turn all $s into 0s.</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -554,6 +557,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,7 +870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,10 +924,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -945,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,7 +976,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,16 +994,16 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,7 +1626,7 @@
     </row>
     <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3">
         <v>73</v>
@@ -1632,8 +1638,8 @@
         <v>41</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>63</v>
+      <c r="F47" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -1645,14 +1651,14 @@
         <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -1664,14 +1670,14 @@
         <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -1683,14 +1689,14 @@
         <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="2"/>
     </row>
@@ -1702,14 +1708,14 @@
         <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -1721,14 +1727,14 @@
         <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2"/>
     </row>
@@ -1740,14 +1746,14 @@
         <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="2"/>
     </row>
@@ -1759,14 +1765,14 @@
         <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -1778,14 +1784,14 @@
         <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -1797,14 +1803,14 @@
         <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" s="2"/>
     </row>
@@ -1816,14 +1822,14 @@
         <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" s="2"/>
     </row>
@@ -1835,14 +1841,14 @@
         <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -1854,14 +1860,14 @@
         <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -1873,10 +1879,10 @@
         <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1890,14 +1896,14 @@
         <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G61" s="2"/>
     </row>
@@ -1909,14 +1915,14 @@
         <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -1928,14 +1934,14 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -1947,14 +1953,14 @@
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -1966,14 +1972,14 @@
         <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G65" s="2"/>
     </row>
@@ -1985,14 +1991,14 @@
         <v>114</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -2004,14 +2010,14 @@
         <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -2023,14 +2029,14 @@
         <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" s="2"/>
     </row>
@@ -2042,14 +2048,14 @@
         <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69" s="2"/>
     </row>
@@ -2061,14 +2067,14 @@
         <v>124</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2078,10 +2084,10 @@
         <v>383</v>
       </c>
       <c r="C71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -2112,7 +2118,7 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G74" s="2"/>
     </row>
@@ -2124,17 +2130,17 @@
         <v>1290</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,7 +2168,7 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G78" s="2"/>
     </row>
@@ -2173,7 +2179,7 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2"/>
     </row>
